--- a/Documents/ODMAP-Table.xlsx
+++ b/Documents/ODMAP-Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFCFF6-A772-064D-B38F-FE445F630CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933C4ADB-96DC-D340-BCF8-23D2421E69DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10520" yWindow="780" windowWidth="19160" windowHeight="18780" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
   </bookViews>
@@ -298,20 +298,6 @@
   </si>
   <si>
     <r>
-      <t>Data source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Aspen presence-absence data at 10x10 m spatial resolution were obtained from Cook et al. (XXXX)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Sampling design</t>
     </r>
     <r>
@@ -392,20 +378,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">:  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Absence data: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The Cook et al. (XXXX) map consists of both presence and absence data.</t>
     </r>
   </si>
   <si>
@@ -845,9 +817,6 @@
       </rPr>
       <t>Inference, Mapping, and Forecasting</t>
     </r>
-  </si>
-  <si>
-    <t>Based on previous studies, we tested climate, topography and edaphic factors as important environmental predictor variables for aspen presence in the Southern Rocky Mountains.</t>
   </si>
   <si>
     <t xml:space="preserve">Predictive model performancWe on validation data was assessed using X different performance measures: area under the reciever opperator curve (AUC), sensitivity, specificity, overall accuracy, kappa, F measure, Precision, and Recall </t>
@@ -951,20 +920,6 @@
   </si>
   <si>
     <r>
-      <t>Algorithms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: SDMs were fit using four different algorithms: generalized linear models (GLMs), generalized additive models (GAMs), gradient boosted trees (GBTs), and random forests (RFs).</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Ensembles: </t>
     </r>
     <r>
@@ -1180,7 +1135,52 @@
     </r>
   </si>
   <si>
-    <t>Prior to model building, all predictor variables were standardized. Model hyperparemeters were then tuned using a spatial cross-validation approach, with the best parameters selected using the area under the reciever operating chracteristic (ROC) curve (AUC).</t>
+    <t>Based on previous studies, we tested climate, topography and edaphic factors as important environmental predictor variables for aspen presence in the Southern Rocky Mountains. For detailed hypotheses, see Table 1.</t>
+  </si>
+  <si>
+    <r>
+      <t>Algorithms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: SDMs were fit using four different algorithms: generalized linear models (GLMs), generalized additive models (GAMs), regularized gradient boosted trees (RGBTs), and random forests (RFs).</t>
+    </r>
+  </si>
+  <si>
+    <t>Prior to model building, all predictor variables were standardized. Model hyperparemeters were then tuned using a spatial cross-validation approach, with the best parameters selected using the area under the reciever operating chracteristic curve (AUC).</t>
+  </si>
+  <si>
+    <r>
+      <t>Data source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Aspen presence-absence data at 10x10 m spatial resolution were obtained from Cook et al. (in review).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absence data: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The Cook et al. (in review) map consists of both presence and absence data.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1224,7 +1224,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,6 +1234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1332,17 +1338,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A126CE3-F8D1-E044-856E-7390C8836DBA}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,13 +1701,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1694,33 +1715,33 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1742,33 +1763,33 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1776,7 +1797,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1794,35 +1815,35 @@
         <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>70</v>
+      <c r="B19" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -1830,256 +1851,251 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>66</v>
+      <c r="B24" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>41</v>
+      <c r="A28" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14" t="s">
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14" t="s">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14" t="s">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14" t="s">
-        <v>36</v>
+      <c r="A37" s="18"/>
+      <c r="B37" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="12" t="s">
+    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="12" t="s">
+    <row r="44" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="187" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="17"/>
+      <c r="A53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="17"/>
+      <c r="A56" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
@@ -2088,6 +2104,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/ODMAP-Table.xlsx
+++ b/Documents/ODMAP-Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/RESEARCH/Analyses/AspenHabitat/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FA6C2-9A31-8442-84B8-45718713B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBCE07E-4A12-E24A-8C6C-1C115CC54D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="1180" windowWidth="34480" windowHeight="18780" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
+    <workbookView xWindow="-35560" yWindow="-6020" windowWidth="15480" windowHeight="18740" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,27 +103,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Temporal resolution and extent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: We modelled the presence of aspen based on remotely sensed maps generated from imagery collected in XXXX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Type of extent boundary</t>
     </r>
     <r>
@@ -565,13 +544,6 @@
     </r>
   </si>
   <si>
-    <t>We make the following key assumptions:
-(1) aspen is at pseudo-equilibrium with the environment
-(2) topography, climate, and soil conditions are the key drivers of aspen's distribution
-(3) classification error (estimated at XX) in maps of aspen occurrence were negligible
-(4) the relationship fit under current conditions apply to future climate conditions (i.e., no change in key limiting processes)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ensembles: </t>
     </r>
@@ -1157,27 +1129,6 @@
   </si>
   <si>
     <t>We used the eight performance statistics to evaluate model fit: overall accuracy, F measure, kappa, precision, recall, AUC, sensitivity and specificity.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Authors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: Sarah J. Hart, Asha Paudel… </t>
-    </r>
   </si>
   <si>
     <t>We fit generalized linear models (GLMs), generalized additive models (GAMS), and random forests (RFs), and regularized gradient boosted tree (RGBTs). 
@@ -1185,6 +1136,55 @@
 (2) GAMs were constructed using a logit link function and a binomial error distribution and fit restricted maximum likelihood. For all variables, we used thin plate regression splines that included a penalty term that allowed the model coefficient to be shrunk to zero. We set the bias dimensions term (k) to the default value of 10 and confirmed an adequate degree of complexity using diagnostic functions from the R package mgcv (Wood 2011). The only hyperparameter we tuned was the penalty factor. We did not explore any interaction terms. GAMs were fit using the mgcv package (Wood 2011). 
 (3) For the RF model, we tuned the minimum number of data points in a node that is required for the node to be split further and the number of variables to try at each split. RF models were fit using the R package ranger (Wright and Ziegler 2017).
 (4) RGBT: For the RGBT model, we tuned the learning rate, number of variables to try at each split, proportion of the training dataset exposed to the fitting routine, the maximum depth of tree, minimum number of data points in a node required for the node to be split further, and the reduction in the loss function required to split further. RGBT were fit using the R package xgboost (Chen et al. 2023).</t>
+  </si>
+  <si>
+    <t>We make the following key assumptions:
+(1) aspen is at pseudo-equilibrium with the environment
+(2) topography, climate, and soil conditions are the key drivers of aspen's distribution
+(3) classification error (average F1-score of 0.91) in maps of aspen occurrence were negligible
+(4) the relationship fit under current conditions apply to future climate conditions (i.e., no change in key limiting processes)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Temporal resolution and extent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: We modelled the presence of aspen based on remotely sensed maps generated from imagery collected in ca. 2019 (Cook et al. 2024).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Authors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Sarah J. Hart, Asha Paudel, and Maxwell C. Cook</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1342,14 +1336,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1357,19 +1348,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1390,9 +1375,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1430,7 +1415,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1536,7 +1521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1678,7 +1663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1688,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A126CE3-F8D1-E044-856E-7390C8836DBA}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1708,47 +1693,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1743,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1770,344 +1755,339 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="11" t="s">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="7" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="20"/>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="12" t="s">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14" t="s">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22" t="s">
-        <v>64</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
@@ -2116,6 +2096,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/ODMAP-Table.xlsx
+++ b/Documents/ODMAP-Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBCE07E-4A12-E24A-8C6C-1C115CC54D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CDB80-30D2-0B47-ADCD-23624A19EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35560" yWindow="-6020" windowWidth="15480" windowHeight="18740" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
+    <workbookView xWindow="0" yWindow="3680" windowWidth="38400" windowHeight="17920" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,12 +89,6 @@
     <t>Scale of analysis</t>
   </si>
   <si>
-    <t>Title:</t>
-  </si>
-  <si>
-    <t>DOI:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -168,6 +162,9 @@
     <t>Software</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -176,20 +173,41 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Data availability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Data are available from XXXX</t>
-    </r>
-  </si>
-  <si>
-    <t>Data</t>
+      <t>Taxon names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Trembling aspen (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Populus tremuloides)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taxonomic reference system: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>US Department of Agriculture (USDA) Plant List of Attributes, Names, Taxonomy, and Symbols (PLANTS) Database</t>
+    </r>
   </si>
   <si>
     <r>
@@ -200,40 +218,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Taxon names</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Trembling aspen (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Populus tremuloides)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Taxonomic reference system: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>US Department of Agriculture (USDA) Plant List of Attributes, Names, Taxonomy, and Symbols (PLANTS) Database</t>
+      <t>Ecological level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: population</t>
     </r>
   </si>
   <si>
@@ -245,17 +239,48 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Ecological level</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: population</t>
-    </r>
+      <t xml:space="preserve">Ecoregion mask: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>We clipped all data to the Southern Rocky Mountain Ecoregion using data from the EPA's (2013) Level III Ecoregions of the Conterminous United States product.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample size: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">The aspen dataset consists of 4,312,302,640 10 x 10 m cells, of which 117,140,964 recorded the presence of aspen. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: We aggregated the aspen presence-absence data to a 90 x 90 m cell size.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data partitioning</t>
   </si>
   <si>
     <r>
@@ -266,48 +291,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Ecoregion mask: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>We clipped all data to the Southern Rocky Mountain Ecoregion using data from the EPA's (2013) Level III Ecoregions of the Conterminous United States product.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sample size: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">The aspen dataset consists of 4,312,302,640 10 x 10 m cells, of which 117,140,964 recorded the presence of aspen. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Scaling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: We aggregated the aspen presence-absence data to a 90 x 90 m cell size.</t>
-    </r>
-  </si>
-  <si>
-    <t>Data partitioning</t>
+      <t>Contact email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sarah.hart@colostate.edu</t>
+    </r>
   </si>
   <si>
     <r>
@@ -318,27 +312,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Contact email:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sarah.hart@colostate.edu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Spatial resolution</t>
     </r>
     <r>
@@ -349,27 +322,6 @@
         <family val="1"/>
       </rPr>
       <t>: 90 x 90 m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Code availability</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: All code is publicly available on GitHub (LINK)</t>
     </r>
   </si>
   <si>
@@ -607,34 +559,6 @@
   </si>
   <si>
     <r>
-      <t>Data source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Aspen presence-absence data at 10x10 m spatial resolution were obtained from Cook et al. (in review).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Absence data: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The Cook et al. (in review) map consists of both presence and absence data.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Sampling design</t>
     </r>
     <r>
@@ -1110,13 +1034,7 @@
     </r>
   </si>
   <si>
-    <t>To avoid collinearity between climate predictors, we initially screened the 34 climatic variables at their original resolution (i.e. 1 x 1 km). To this end, we calculated pairwise correlation coefficients and when |r|&gt;0.75, we removed variables based on existing research (Table 4). Where evidence was similar, we used univariate random forest (RF) models to evaluate the potential explanatory power of each predictor.</t>
-  </si>
-  <si>
     <t>Using the downscaled climate variables in combination with soil and topographic variables, we further reduced multicollinearity in our predictor dataset by calculating variable inflation factors (VIF) using the spatialRF package (Benito 2022). We then iteratively removed variables until VIF&lt;5 for all variables.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the R package DALEX (Biecek 2018), we determined variable importance using a model-agnostic permutation-based approach. In this approach, each variable is randomized and then AUC statistic is compared with =AUC for the full model (where data has not been randomized). We evaluated the relationship between aspen presence and each predictor variable using accumulated local effects (ALE) profiles, which were generated using the ALEPlot package (Aplet, 2018). </t>
   </si>
   <si>
     <t xml:space="preserve">We calculated a weighted probability of occurrence from all four SDMs. Weights assigned were based on the AUC statistic. </t>
@@ -1185,6 +1103,99 @@
       </rPr>
       <t>: Sarah J. Hart, Asha Paudel, and Maxwell C. Cook</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Climate-driven decreases in aspen's distribution and opportunities for future expansion across the Southern Rocky Mountains</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Code availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Aspen presence-absence data at 10x10 m spatial resolution were obtained from Cook et al. (2024).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absence data: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The Cook et al. (2024) map consists of both presence and absence data.</t>
+    </r>
+  </si>
+  <si>
+    <t>To avoid collinearity between climate predictors, we initially screened the 34 climatic variables at their original resolution (i.e. 1 x 1 km). To this end, we calculated pairwise correlation coefficients and when |r|&gt;0.75, we removed variables based on existing research (Table 5). Where evidence was similar, we used univariate random forest (RF) models to evaluate the potential explanatory power of each predictor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the R package DALEX (Biecek 2018), we determined variable importance using a model-agnostic permutation-based approach. In this approach, each variable is randomized and then AUC statistic is compared with the AUC for the full model (where data has not been randomized). We evaluated the relationship between aspen presence and each predictor variable using accumulated local effects (ALE) profiles, which were generated using the ALEPlot package (Aplet, 2018). </t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1336,26 +1347,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A126CE3-F8D1-E044-856E-7390C8836DBA}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1693,47 +1695,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1755,339 +1757,344 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
-        <v>83</v>
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>20</v>
+      <c r="A20" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="12" t="s">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="14" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>71</v>
+      <c r="A39" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="15"/>
+      <c r="A45" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="15"/>
+      <c r="A53" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="15"/>
+      <c r="A56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
@@ -2096,11 +2103,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/ODMAP-Table.xlsx
+++ b/Documents/ODMAP-Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82CDB80-30D2-0B47-ADCD-23624A19EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A79312-BC80-9F42-BE3C-557C5154BA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3680" windowWidth="38400" windowHeight="17920" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
+    <workbookView xWindow="0" yWindow="1720" windowWidth="30240" windowHeight="17920" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1347,16 +1347,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A126CE3-F8D1-E044-856E-7390C8836DBA}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,13 +1695,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1709,25 +1709,25 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1765,25 +1765,25 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1829,13 +1829,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
@@ -1848,8 +1848,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1857,25 +1857,25 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1883,55 +1883,55 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="14" t="s">
         <v>82</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1953,40 +1953,40 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -2045,10 +2045,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -2067,10 +2067,10 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -2090,11 +2090,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
@@ -2103,6 +2098,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/ODMAP-Table.xlsx
+++ b/Documents/ODMAP-Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A79312-BC80-9F42-BE3C-557C5154BA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0240C27-1BB0-884E-851A-71121292910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1720" windowWidth="30240" windowHeight="17920" xr2:uid="{13C9FE07-A4C9-0B4A-BF1F-85133AC3EB69}"/>
   </bookViews>
@@ -1105,9 +1105,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DOI: </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Title: </t>
     </r>
@@ -1123,6 +1120,40 @@
   </si>
   <si>
     <r>
+      <t>Data source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Aspen presence-absence data at 10x10 m spatial resolution were obtained from Cook et al. (2024).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Absence data: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The Cook et al. (2024) map consists of both presence and absence data.</t>
+    </r>
+  </si>
+  <si>
+    <t>To avoid collinearity between climate predictors, we initially screened the 34 climatic variables at their original resolution (i.e. 1 x 1 km). To this end, we calculated pairwise correlation coefficients and when |r|&gt;0.75, we removed variables based on existing research (Table 5). Where evidence was similar, we used univariate random forest (RF) models to evaluate the potential explanatory power of each predictor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the R package DALEX (Biecek 2018), we determined variable importance using a model-agnostic permutation-based approach. In this approach, each variable is randomized and then AUC statistic is compared with the AUC for the full model (where data has not been randomized). We evaluated the relationship between aspen presence and each predictor variable using accumulated local effects (ALE) profiles, which were generated using the ALEPlot package (Aplet, 2018). </t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -1139,7 +1170,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>:</t>
+      <t>: http://datadryad.org/stash/share/gGubdiD6hCORznmbeHB6gkWoxodyj25Soa3s3yfOfHg</t>
     </r>
   </si>
   <si>
@@ -1160,42 +1191,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Data source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Aspen presence-absence data at 10x10 m spatial resolution were obtained from Cook et al. (2024).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Absence data: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The Cook et al. (2024) map consists of both presence and absence data.</t>
-    </r>
-  </si>
-  <si>
-    <t>To avoid collinearity between climate predictors, we initially screened the 34 climatic variables at their original resolution (i.e. 1 x 1 km). To this end, we calculated pairwise correlation coefficients and when |r|&gt;0.75, we removed variables based on existing research (Table 5). Where evidence was similar, we used univariate random forest (RF) models to evaluate the potential explanatory power of each predictor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the R package DALEX (Biecek 2018), we determined variable importance using a model-agnostic permutation-based approach. In this approach, each variable is randomized and then AUC statistic is compared with the AUC for the full model (where data has not been randomized). We evaluated the relationship between aspen presence and each predictor variable using accumulated local effects (ALE) profiles, which were generated using the ALEPlot package (Aplet, 2018). </t>
+      <t>: http://datadryad.org/stash/share/gGubdiD6hCORznmbeHB6gkWoxodyj25Soa3s3yfOfHg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DOI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.5061/dryad.t76hdr88v</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1347,16 +1358,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1675,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A126CE3-F8D1-E044-856E-7390C8836DBA}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,13 +1706,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1709,25 +1720,25 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1735,7 +1746,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1768,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1765,25 +1776,25 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1791,7 +1802,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1832,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1829,13 +1840,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
@@ -1849,33 +1860,33 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1883,57 +1894,57 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1945,7 +1956,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1953,47 +1964,47 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="204" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -2017,7 +2028,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2045,10 +2056,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -2067,10 +2078,10 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -2090,6 +2101,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A28:A37"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A2:B2"/>
@@ -2098,11 +2114,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A28:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
